--- a/contratos/contratos-2-2009.xlsx
+++ b/contratos/contratos-2-2009.xlsx
@@ -574,7 +574,7 @@
     <t>ZALAZAR HECTOR FABIAN</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>A. ROPELATO S.R.L.</t>
@@ -613,7 +613,7 @@
     <t>LANGONI JAVIER JOSE</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>RODE PABLO DANIEL</t>
@@ -637,10 +637,10 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RETAMAR JOSE LUIS</t>
@@ -1048,424 +1048,424 @@
     <t>11</t>
   </si>
   <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>555,00</t>
-  </si>
-  <si>
-    <t>79,00</t>
-  </si>
-  <si>
-    <t>2.715,00</t>
-  </si>
-  <si>
-    <t>187,40</t>
-  </si>
-  <si>
-    <t>736,00</t>
-  </si>
-  <si>
-    <t>54,00</t>
-  </si>
-  <si>
-    <t>15.964,38</t>
-  </si>
-  <si>
-    <t>46.244,62</t>
-  </si>
-  <si>
-    <t>8.737,71</t>
-  </si>
-  <si>
-    <t>5.557,55</t>
-  </si>
-  <si>
-    <t>10.453,87</t>
-  </si>
-  <si>
-    <t>62,50</t>
-  </si>
-  <si>
-    <t>4.451,39</t>
-  </si>
-  <si>
-    <t>3.541,30</t>
-  </si>
-  <si>
-    <t>5.262,37</t>
-  </si>
-  <si>
-    <t>216,63</t>
-  </si>
-  <si>
-    <t>6.427,83</t>
-  </si>
-  <si>
-    <t>4.088,50</t>
-  </si>
-  <si>
-    <t>3.270,00</t>
-  </si>
-  <si>
-    <t>61,05</t>
-  </si>
-  <si>
-    <t>1.490,00</t>
-  </si>
-  <si>
-    <t>241,00</t>
-  </si>
-  <si>
-    <t>58,34</t>
-  </si>
-  <si>
-    <t>1.807,13</t>
-  </si>
-  <si>
-    <t>3.493,95</t>
-  </si>
-  <si>
-    <t>4.858,35</t>
-  </si>
-  <si>
-    <t>42.039,00</t>
-  </si>
-  <si>
-    <t>5.973,00</t>
-  </si>
-  <si>
-    <t>86,15</t>
-  </si>
-  <si>
-    <t>3.919,65</t>
-  </si>
-  <si>
-    <t>19.965,20</t>
-  </si>
-  <si>
-    <t>2.403,92</t>
-  </si>
-  <si>
-    <t>264,00</t>
-  </si>
-  <si>
-    <t>12.937,20</t>
-  </si>
-  <si>
-    <t>8,32</t>
-  </si>
-  <si>
-    <t>15.300,00</t>
-  </si>
-  <si>
-    <t>1.841,22</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>5.013,70</t>
-  </si>
-  <si>
-    <t>369,00</t>
-  </si>
-  <si>
-    <t>7.931,86</t>
-  </si>
-  <si>
-    <t>3.730,00</t>
-  </si>
-  <si>
-    <t>894,39</t>
-  </si>
-  <si>
-    <t>716,00</t>
-  </si>
-  <si>
-    <t>9.873,60</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.003,40</t>
-  </si>
-  <si>
-    <t>8.015,00</t>
-  </si>
-  <si>
-    <t>215,00</t>
-  </si>
-  <si>
-    <t>807,50</t>
-  </si>
-  <si>
-    <t>12.848,40</t>
-  </si>
-  <si>
-    <t>14.875,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>509,00</t>
-  </si>
-  <si>
-    <t>32.941,00</t>
-  </si>
-  <si>
-    <t>1.706,60</t>
-  </si>
-  <si>
-    <t>108,00</t>
-  </si>
-  <si>
-    <t>442,57</t>
-  </si>
-  <si>
-    <t>2.071,00</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>213.532,00</t>
-  </si>
-  <si>
-    <t>262,29</t>
-  </si>
-  <si>
-    <t>239,61</t>
-  </si>
-  <si>
-    <t>3.334,00</t>
-  </si>
-  <si>
-    <t>154,17</t>
-  </si>
-  <si>
-    <t>433,07</t>
-  </si>
-  <si>
-    <t>388,50</t>
-  </si>
-  <si>
-    <t>2.455,52</t>
-  </si>
-  <si>
-    <t>5.807,00</t>
-  </si>
-  <si>
-    <t>4.484,34</t>
-  </si>
-  <si>
-    <t>308,50</t>
-  </si>
-  <si>
-    <t>2.166,80</t>
-  </si>
-  <si>
-    <t>6.249,39</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>46,89</t>
-  </si>
-  <si>
-    <t>6.960,13</t>
-  </si>
-  <si>
-    <t>24.581,46</t>
-  </si>
-  <si>
-    <t>354,00</t>
-  </si>
-  <si>
-    <t>964,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.040,00</t>
-  </si>
-  <si>
-    <t>233,00</t>
-  </si>
-  <si>
-    <t>2.450,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>830,00</t>
-  </si>
-  <si>
-    <t>597,18</t>
-  </si>
-  <si>
-    <t>62.051,22</t>
-  </si>
-  <si>
-    <t>574,60</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>756,00</t>
-  </si>
-  <si>
-    <t>433,16</t>
-  </si>
-  <si>
-    <t>3.025,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>728,00</t>
-  </si>
-  <si>
-    <t>4.869,74</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>13.699,62</t>
-  </si>
-  <si>
-    <t>494,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>1.456,85</t>
-  </si>
-  <si>
-    <t>362,00</t>
-  </si>
-  <si>
-    <t>2.977,50</t>
-  </si>
-  <si>
-    <t>108,90</t>
-  </si>
-  <si>
-    <t>1.354,56</t>
-  </si>
-  <si>
-    <t>2.182,45</t>
-  </si>
-  <si>
-    <t>245,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>229,84</t>
-  </si>
-  <si>
-    <t>2.430,78</t>
-  </si>
-  <si>
-    <t>144,00</t>
-  </si>
-  <si>
-    <t>298,63</t>
-  </si>
-  <si>
-    <t>261,00</t>
-  </si>
-  <si>
-    <t>127,80</t>
-  </si>
-  <si>
-    <t>372,00</t>
-  </si>
-  <si>
-    <t>12.641,30</t>
-  </si>
-  <si>
-    <t>599,00</t>
-  </si>
-  <si>
-    <t>195,00</t>
-  </si>
-  <si>
-    <t>5.801,96</t>
-  </si>
-  <si>
-    <t>3.280,00</t>
-  </si>
-  <si>
-    <t>1.248,96</t>
-  </si>
-  <si>
-    <t>2.120,00</t>
-  </si>
-  <si>
-    <t>987,00</t>
-  </si>
-  <si>
-    <t>2.001,52</t>
-  </si>
-  <si>
-    <t>4.125,00</t>
-  </si>
-  <si>
-    <t>197.482,31</t>
-  </si>
-  <si>
-    <t>1.552,30</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>2.240,00</t>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>555.00</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>2715.00</t>
+  </si>
+  <si>
+    <t>187.40</t>
+  </si>
+  <si>
+    <t>736.00</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>15964.38</t>
+  </si>
+  <si>
+    <t>46244.62</t>
+  </si>
+  <si>
+    <t>8737.71</t>
+  </si>
+  <si>
+    <t>5557.55</t>
+  </si>
+  <si>
+    <t>10453.87</t>
+  </si>
+  <si>
+    <t>62.50</t>
+  </si>
+  <si>
+    <t>4451.39</t>
+  </si>
+  <si>
+    <t>3541.30</t>
+  </si>
+  <si>
+    <t>5262.37</t>
+  </si>
+  <si>
+    <t>216.63</t>
+  </si>
+  <si>
+    <t>6427.83</t>
+  </si>
+  <si>
+    <t>4088.50</t>
+  </si>
+  <si>
+    <t>3270.00</t>
+  </si>
+  <si>
+    <t>61.05</t>
+  </si>
+  <si>
+    <t>1490.00</t>
+  </si>
+  <si>
+    <t>241.00</t>
+  </si>
+  <si>
+    <t>58.34</t>
+  </si>
+  <si>
+    <t>1807.13</t>
+  </si>
+  <si>
+    <t>3493.95</t>
+  </si>
+  <si>
+    <t>4858.35</t>
+  </si>
+  <si>
+    <t>42039.00</t>
+  </si>
+  <si>
+    <t>5973.00</t>
+  </si>
+  <si>
+    <t>86.15</t>
+  </si>
+  <si>
+    <t>3919.65</t>
+  </si>
+  <si>
+    <t>19965.20</t>
+  </si>
+  <si>
+    <t>2403.92</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>12937.20</t>
+  </si>
+  <si>
+    <t>8.32</t>
+  </si>
+  <si>
+    <t>15300.00</t>
+  </si>
+  <si>
+    <t>1841.22</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>5013.70</t>
+  </si>
+  <si>
+    <t>369.00</t>
+  </si>
+  <si>
+    <t>7931.86</t>
+  </si>
+  <si>
+    <t>3730.00</t>
+  </si>
+  <si>
+    <t>894.39</t>
+  </si>
+  <si>
+    <t>716.00</t>
+  </si>
+  <si>
+    <t>9873.60</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1003.40</t>
+  </si>
+  <si>
+    <t>8015.00</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>807.50</t>
+  </si>
+  <si>
+    <t>12848.40</t>
+  </si>
+  <si>
+    <t>14875.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>509.00</t>
+  </si>
+  <si>
+    <t>32941.00</t>
+  </si>
+  <si>
+    <t>1706.60</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>442.57</t>
+  </si>
+  <si>
+    <t>2071.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>213532.00</t>
+  </si>
+  <si>
+    <t>262.29</t>
+  </si>
+  <si>
+    <t>239.61</t>
+  </si>
+  <si>
+    <t>3334.00</t>
+  </si>
+  <si>
+    <t>154.17</t>
+  </si>
+  <si>
+    <t>433.07</t>
+  </si>
+  <si>
+    <t>388.50</t>
+  </si>
+  <si>
+    <t>2455.52</t>
+  </si>
+  <si>
+    <t>5807.00</t>
+  </si>
+  <si>
+    <t>4484.34</t>
+  </si>
+  <si>
+    <t>308.50</t>
+  </si>
+  <si>
+    <t>2166.80</t>
+  </si>
+  <si>
+    <t>6249.39</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>46.89</t>
+  </si>
+  <si>
+    <t>6960.13</t>
+  </si>
+  <si>
+    <t>24581.46</t>
+  </si>
+  <si>
+    <t>354.00</t>
+  </si>
+  <si>
+    <t>964.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>233.00</t>
+  </si>
+  <si>
+    <t>2450.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>830.00</t>
+  </si>
+  <si>
+    <t>597.18</t>
+  </si>
+  <si>
+    <t>62051.22</t>
+  </si>
+  <si>
+    <t>574.60</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>756.00</t>
+  </si>
+  <si>
+    <t>433.16</t>
+  </si>
+  <si>
+    <t>3025.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>728.00</t>
+  </si>
+  <si>
+    <t>4869.74</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>13699.62</t>
+  </si>
+  <si>
+    <t>494.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>1456.85</t>
+  </si>
+  <si>
+    <t>362.00</t>
+  </si>
+  <si>
+    <t>2977.50</t>
+  </si>
+  <si>
+    <t>108.90</t>
+  </si>
+  <si>
+    <t>1354.56</t>
+  </si>
+  <si>
+    <t>2182.45</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>229.84</t>
+  </si>
+  <si>
+    <t>2430.78</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>298.63</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>127.80</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>12641.30</t>
+  </si>
+  <si>
+    <t>599.00</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>5801.96</t>
+  </si>
+  <si>
+    <t>3280.00</t>
+  </si>
+  <si>
+    <t>1248.96</t>
+  </si>
+  <si>
+    <t>2120.00</t>
+  </si>
+  <si>
+    <t>987.00</t>
+  </si>
+  <si>
+    <t>2001.52</t>
+  </si>
+  <si>
+    <t>4125.00</t>
+  </si>
+  <si>
+    <t>197482.31</t>
+  </si>
+  <si>
+    <t>1552.30</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>2240.00</t>
   </si>
 </sst>
 </file>
